--- a/service-system/src/main/resources/static/构造深度-4车道.xlsx
+++ b/service-system/src/main/resources/static/构造深度-4车道.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C9344-EAFE-4564-A6AC-4CE5A92221FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692094F5-41D9-444F-B6B1-247C14FEC90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="784" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="34">
   <si>
     <t>桥面系构造深度质量鉴定表</t>
   </si>
@@ -148,11 +148,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2车道</t>
+    <t>4车道</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4车道</t>
+    <t>左幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1车道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隧道路面构造深度质量鉴定表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥面系构造深度质量鉴定表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +368,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,9 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,15 +469,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,30 +796,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -838,110 +838,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="15"/>
+      <c r="K3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1245,11 +1245,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -1264,10 +1264,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="11"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -1282,10 +1282,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="11"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -1300,10 +1300,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="20"/>
+      <c r="K30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -1318,10 +1318,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="11"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -1336,10 +1336,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="11"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -1354,10 +1354,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="11"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -1408,226 +1408,226 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+    <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2092,13 +2092,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -2119,12 +2119,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -2145,12 +2145,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -2171,12 +2171,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -2197,12 +2197,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="20"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -2223,12 +2223,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="20"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -2249,12 +2249,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="20"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2279,20 +2279,19 @@
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -2308,226 +2307,226 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+    <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2992,13 +2991,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -3019,12 +3018,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -3045,12 +3044,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -3071,12 +3070,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -3097,12 +3096,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -3123,12 +3122,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -3149,12 +3148,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -3179,20 +3178,19 @@
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.25972222222222" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -3208,226 +3206,226 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+    <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3892,13 +3890,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -3919,12 +3917,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -3945,12 +3943,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -3971,12 +3969,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -3997,12 +3995,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -4023,12 +4021,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -4049,12 +4047,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -4079,20 +4077,19 @@
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -4108,226 +4105,226 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R10:R11"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4792,13 +4789,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -4819,12 +4816,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -4845,12 +4842,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -4871,12 +4868,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -4897,12 +4894,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -4923,12 +4920,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -4949,12 +4946,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -4979,20 +4976,19 @@
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.299212598425197" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -5008,226 +5004,226 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5692,13 +5688,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -5719,12 +5715,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -5745,12 +5741,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -5771,12 +5767,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -5797,12 +5793,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -5823,12 +5819,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -5849,12 +5845,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -5879,20 +5875,19 @@
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -5908,226 +5903,226 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+    <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6592,13 +6587,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -6619,12 +6614,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -6645,12 +6640,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -6671,12 +6666,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -6697,12 +6692,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -6723,12 +6718,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -6749,12 +6744,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -6779,20 +6774,19 @@
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -6808,226 +6802,226 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+    <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="11"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7492,13 +7486,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -7519,12 +7513,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -7545,12 +7539,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -7571,12 +7565,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -7597,12 +7591,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -7623,12 +7617,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -7649,12 +7643,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -7679,20 +7673,19 @@
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -7708,226 +7701,226 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+    <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8392,13 +8385,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -8419,12 +8412,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -8445,12 +8438,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -8471,12 +8464,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -8497,12 +8490,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -8523,12 +8516,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -8549,12 +8542,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -8579,20 +8572,19 @@
     <mergeCell ref="P4:P6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -8608,226 +8600,226 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+    <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9292,13 +9284,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -9319,12 +9311,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -9345,12 +9337,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -9371,12 +9363,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -9397,12 +9389,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -9423,12 +9415,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -9449,12 +9441,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -9479,20 +9471,19 @@
     <mergeCell ref="P4:P6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -9520,30 +9511,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -9562,110 +9553,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="15"/>
+      <c r="K3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -9969,11 +9960,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -9988,10 +9979,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="11"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -10006,10 +9997,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="11"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -10024,10 +10015,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="20"/>
+      <c r="K30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -10042,10 +10033,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="11"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -10060,10 +10051,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="11"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -10078,10 +10069,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="11"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -10144,30 +10135,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -10186,110 +10177,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="15"/>
+      <c r="K3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -10593,11 +10584,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -10612,10 +10603,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="11"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -10630,10 +10621,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="11"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -10648,10 +10639,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="20"/>
+      <c r="K30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -10666,10 +10657,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="11"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -10684,10 +10675,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="11"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -10702,10 +10693,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="11"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -10768,30 +10759,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -10810,110 +10801,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="15"/>
+      <c r="K3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -11217,11 +11208,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -11236,10 +11227,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="11"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -11254,10 +11245,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="11"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -11272,10 +11263,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="20"/>
+      <c r="K30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -11290,10 +11281,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="11"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -11308,10 +11299,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="11"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -11326,10 +11317,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="11"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -11392,30 +11383,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -11434,110 +11425,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="15"/>
+      <c r="K3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -11841,11 +11832,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -11860,10 +11851,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="11"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -11878,10 +11869,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="11"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -11896,10 +11887,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="20"/>
+      <c r="K30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -11914,10 +11905,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="11"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -11932,10 +11923,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="11"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -11950,10 +11941,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="11"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -12016,30 +12007,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -12058,110 +12049,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="15"/>
+      <c r="K3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -12465,11 +12456,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -12484,10 +12475,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="11"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -12502,10 +12493,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="11"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -12520,10 +12511,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="20"/>
+      <c r="K30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -12538,10 +12529,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="11"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -12556,10 +12547,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="11"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -12574,10 +12565,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="11"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -12628,49 +12619,55 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -12683,165 +12680,165 @@
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="25" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="10" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="27"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -13306,13 +13303,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -13333,12 +13330,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -13359,12 +13356,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -13385,12 +13382,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -13411,12 +13408,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -13437,12 +13434,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -13463,12 +13460,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -13493,20 +13490,19 @@
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -13522,226 +13518,226 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="25" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="25" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="25" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="27"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="27"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="27"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14206,13 +14202,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -14233,12 +14229,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -14259,12 +14255,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -14285,12 +14281,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -14311,12 +14307,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -14337,12 +14333,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -14363,12 +14359,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -14393,20 +14389,19 @@
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -14422,226 +14417,226 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="20" width="10.625" customWidth="1"/>
+    <col min="17" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+    <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="Q3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="12" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="26"/>
       <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="12"/>
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>30</v>
+      <c r="T6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15106,13 +15101,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -15133,12 +15128,12 @@
       <c r="P28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="20"/>
+      <c r="Q28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -15159,12 +15154,12 @@
       <c r="P29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="20"/>
+      <c r="Q29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -15185,12 +15180,12 @@
       <c r="P30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="20"/>
+      <c r="Q30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -15211,12 +15206,12 @@
       <c r="P31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="Q31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -15237,12 +15232,12 @@
       <c r="P32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24"/>
+      <c r="Q32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -15263,12 +15258,12 @@
       <c r="P33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -15293,20 +15288,19 @@
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
